--- a/TS4197.xlsx
+++ b/TS4197.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ntlgnoida-my.sharepoint.com/personal/poreddy_j_coforgetech_com/Documents/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ntlgnoida-my.sharepoint.com/personal/poreddy_j_coforge_com/Documents/Documents/Practice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9DB5DF1F-B543-41D6-94A9-2F2376154C9C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{9DB5DF1F-B543-41D6-94A9-2F2376154C9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{711230DD-F7B5-4358-A5DB-48CA81D996C6}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{AFF4673B-1EB7-4413-A82E-0F2E84F0F3FB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="44">
   <si>
     <t>S.NO</t>
   </si>
@@ -169,6 +169,12 @@
   <si>
     <t>For ASPAC-Region validate that on Return From Long Term Absence Approval screen,Verify approval comments are mandatory to fill while approver CLICKS on Reject button
 Note:After rejection request is closed and the requestor is notified and The status of the request is changed to “Completed”</t>
+  </si>
+  <si>
+    <t>jagannn</t>
+  </si>
+  <si>
+    <t>mohan</t>
   </si>
 </sst>
 </file>
@@ -580,10 +586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E428ABF-FA72-4BFF-8CCF-1D588BEDAEB2}">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="42" zoomScaleNormal="42" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -988,6 +994,14 @@
         <v>13</v>
       </c>
     </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
